--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2527,28 +2527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3746.714146958393</v>
+        <v>3901.944175076503</v>
       </c>
       <c r="AB2" t="n">
-        <v>5126.419589231109</v>
+        <v>5338.812161967835</v>
       </c>
       <c r="AC2" t="n">
-        <v>4637.161298609782</v>
+        <v>4829.283422299354</v>
       </c>
       <c r="AD2" t="n">
-        <v>3746714.146958393</v>
+        <v>3901944.175076503</v>
       </c>
       <c r="AE2" t="n">
-        <v>5126419.589231109</v>
+        <v>5338812.161967835</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.580922025867259e-07</v>
+        <v>1.237080992587835e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.41666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>4637161.298609782</v>
+        <v>4829283.422299354</v>
       </c>
     </row>
     <row r="3">
@@ -2633,28 +2633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1257.91907017231</v>
+        <v>1344.167407272573</v>
       </c>
       <c r="AB3" t="n">
-        <v>1721.140367282457</v>
+        <v>1839.149147111126</v>
       </c>
       <c r="AC3" t="n">
-        <v>1556.877146264696</v>
+        <v>1663.62333377288</v>
       </c>
       <c r="AD3" t="n">
-        <v>1257919.07017231</v>
+        <v>1344167.407272573</v>
       </c>
       <c r="AE3" t="n">
-        <v>1721140.367282457</v>
+        <v>1839149.147111126</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.614794728057203e-06</v>
+        <v>2.32799209570805e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.82083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1556877.146264696</v>
+        <v>1663623.33377288</v>
       </c>
     </row>
     <row r="4">
@@ -2739,28 +2739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>955.3483503358818</v>
+        <v>1024.330041353729</v>
       </c>
       <c r="AB4" t="n">
-        <v>1307.149759924185</v>
+        <v>1401.53355283223</v>
       </c>
       <c r="AC4" t="n">
-        <v>1182.397221433231</v>
+        <v>1267.773157614617</v>
       </c>
       <c r="AD4" t="n">
-        <v>955348.3503358818</v>
+        <v>1024330.041353729</v>
       </c>
       <c r="AE4" t="n">
-        <v>1307149.759924185</v>
+        <v>1401533.55283223</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.896059904287603e-06</v>
+        <v>2.733482091238371e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.02916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1182397.221433231</v>
+        <v>1267773.157614617</v>
       </c>
     </row>
     <row r="5">
@@ -2845,28 +2845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>809.2973587436393</v>
+        <v>878.2789602529356</v>
       </c>
       <c r="AB5" t="n">
-        <v>1107.316349912676</v>
+        <v>1201.700020351172</v>
       </c>
       <c r="AC5" t="n">
-        <v>1001.635631605268</v>
+        <v>1087.011457005427</v>
       </c>
       <c r="AD5" t="n">
-        <v>809297.3587436393</v>
+        <v>878278.9602529355</v>
       </c>
       <c r="AE5" t="n">
-        <v>1107316.349912676</v>
+        <v>1201700.020351172</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.051426819580847e-06</v>
+        <v>2.957469044163573e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.81458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1001635.631605268</v>
+        <v>1087011.457005427</v>
       </c>
     </row>
     <row r="6">
@@ -2951,28 +2951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>734.318435190612</v>
+        <v>794.6667584129757</v>
       </c>
       <c r="AB6" t="n">
-        <v>1004.726878870773</v>
+        <v>1087.29811708373</v>
       </c>
       <c r="AC6" t="n">
-        <v>908.8371556943765</v>
+        <v>983.5279108217501</v>
       </c>
       <c r="AD6" t="n">
-        <v>734318.435190612</v>
+        <v>794666.7584129757</v>
       </c>
       <c r="AE6" t="n">
-        <v>1004726.878870773</v>
+        <v>1087298.11708373</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.142166933489202e-06</v>
+        <v>3.088285837327401e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.1875</v>
       </c>
       <c r="AH6" t="n">
-        <v>908837.1556943766</v>
+        <v>983527.9108217501</v>
       </c>
     </row>
     <row r="7">
@@ -3057,28 +3057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>720.8837839284214</v>
+        <v>781.2321071507854</v>
       </c>
       <c r="AB7" t="n">
-        <v>986.3449963188605</v>
+        <v>1068.916234531818</v>
       </c>
       <c r="AC7" t="n">
-        <v>892.2096142140846</v>
+        <v>966.9003693414579</v>
       </c>
       <c r="AD7" t="n">
-        <v>720883.7839284214</v>
+        <v>781232.1071507854</v>
       </c>
       <c r="AE7" t="n">
-        <v>986344.9963188604</v>
+        <v>1068916.234531818</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.15806833608729e-06</v>
+        <v>3.11121032358923e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.08333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>892209.6142140846</v>
+        <v>966900.369341458</v>
       </c>
     </row>
   </sheetData>
@@ -3354,28 +3354,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2262.013421970716</v>
+        <v>2388.104093586618</v>
       </c>
       <c r="AB2" t="n">
-        <v>3094.986556929652</v>
+        <v>3267.509376562374</v>
       </c>
       <c r="AC2" t="n">
-        <v>2799.605383777083</v>
+        <v>2955.66286764135</v>
       </c>
       <c r="AD2" t="n">
-        <v>2262013.421970716</v>
+        <v>2388104.093586618</v>
       </c>
       <c r="AE2" t="n">
-        <v>3094986.556929652</v>
+        <v>3267509.376562374</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.131110917084849e-06</v>
+        <v>1.655903831403945e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.79583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2799605.383777083</v>
+        <v>2955662.86764135</v>
       </c>
     </row>
     <row r="3">
@@ -3460,28 +3460,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>978.4999658944541</v>
+        <v>1045.839443843029</v>
       </c>
       <c r="AB3" t="n">
-        <v>1338.826821708617</v>
+        <v>1430.963666245956</v>
       </c>
       <c r="AC3" t="n">
-        <v>1211.051068899992</v>
+        <v>1294.39450230956</v>
       </c>
       <c r="AD3" t="n">
-        <v>978499.9658944542</v>
+        <v>1045839.443843029</v>
       </c>
       <c r="AE3" t="n">
-        <v>1338826.821708617</v>
+        <v>1430963.666245956</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.833622100411063e-06</v>
+        <v>2.68435377605843e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.14583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1211051.068899992</v>
+        <v>1294394.502309561</v>
       </c>
     </row>
     <row r="4">
@@ -3566,28 +3566,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>759.1156325890587</v>
+        <v>818.0376869826309</v>
       </c>
       <c r="AB4" t="n">
-        <v>1038.655498326468</v>
+        <v>1119.275252605333</v>
       </c>
       <c r="AC4" t="n">
-        <v>939.5276753283366</v>
+        <v>1012.453193409362</v>
       </c>
       <c r="AD4" t="n">
-        <v>759115.6325890587</v>
+        <v>818037.686982631</v>
       </c>
       <c r="AE4" t="n">
-        <v>1038655.498326468</v>
+        <v>1119275.252605333</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.091687433061508e-06</v>
+        <v>3.062151714911097e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.03125</v>
       </c>
       <c r="AH4" t="n">
-        <v>939527.6753283367</v>
+        <v>1012453.193409362</v>
       </c>
     </row>
     <row r="5">
@@ -3672,28 +3672,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>671.651567061995</v>
+        <v>730.4882806009956</v>
       </c>
       <c r="AB5" t="n">
-        <v>918.9833052300978</v>
+        <v>999.4862923867648</v>
       </c>
       <c r="AC5" t="n">
-        <v>831.2768283801062</v>
+        <v>904.096723429193</v>
       </c>
       <c r="AD5" t="n">
-        <v>671651.567061995</v>
+        <v>730488.2806009956</v>
       </c>
       <c r="AE5" t="n">
-        <v>918983.3052300978</v>
+        <v>999486.2923867648</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.201553843686961e-06</v>
+        <v>3.222992007007438e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.28125</v>
       </c>
       <c r="AH5" t="n">
-        <v>831276.8283801061</v>
+        <v>904096.723429193</v>
       </c>
     </row>
     <row r="6">
@@ -3778,28 +3778,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>673.417786658959</v>
+        <v>732.2545001979594</v>
       </c>
       <c r="AB6" t="n">
-        <v>921.3999248027729</v>
+        <v>1001.90291195944</v>
       </c>
       <c r="AC6" t="n">
-        <v>833.4628091725119</v>
+        <v>906.2827042215989</v>
       </c>
       <c r="AD6" t="n">
-        <v>673417.786658959</v>
+        <v>732254.5001979594</v>
       </c>
       <c r="AE6" t="n">
-        <v>921399.9248027729</v>
+        <v>1001902.91195944</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.203364828477491e-06</v>
+        <v>3.225643220613421e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.26875</v>
       </c>
       <c r="AH6" t="n">
-        <v>833462.8091725119</v>
+        <v>906282.7042215989</v>
       </c>
     </row>
   </sheetData>
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>702.0297856758147</v>
+        <v>771.7647920833811</v>
       </c>
       <c r="AB2" t="n">
-        <v>960.5481241299448</v>
+        <v>1055.962636388132</v>
       </c>
       <c r="AC2" t="n">
-        <v>868.8747593007415</v>
+        <v>955.1830444241165</v>
       </c>
       <c r="AD2" t="n">
-        <v>702029.7856758146</v>
+        <v>771764.7920833811</v>
       </c>
       <c r="AE2" t="n">
-        <v>960548.1241299447</v>
+        <v>1055962.636388132</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.03073078264549e-06</v>
+        <v>3.14179117977281e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.275</v>
       </c>
       <c r="AH2" t="n">
-        <v>868874.7593007415</v>
+        <v>955183.0444241165</v>
       </c>
     </row>
     <row r="3">
@@ -4181,28 +4181,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>584.6276909110502</v>
+        <v>646.766000784969</v>
       </c>
       <c r="AB3" t="n">
-        <v>799.913398657918</v>
+        <v>884.9337755761705</v>
       </c>
       <c r="AC3" t="n">
-        <v>723.5707865755116</v>
+        <v>800.4769380475348</v>
       </c>
       <c r="AD3" t="n">
-        <v>584627.6909110502</v>
+        <v>646766.0007849691</v>
       </c>
       <c r="AE3" t="n">
-        <v>799913.3986579181</v>
+        <v>884933.7755761705</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.221864329233319e-06</v>
+        <v>3.437498368515005e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.78958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>723570.7865755117</v>
+        <v>800476.9380475348</v>
       </c>
     </row>
   </sheetData>
@@ -4478,28 +4478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1088.137263964855</v>
+        <v>1168.26666773628</v>
       </c>
       <c r="AB2" t="n">
-        <v>1488.837409784762</v>
+        <v>1598.473995084628</v>
       </c>
       <c r="AC2" t="n">
-        <v>1346.744856991332</v>
+        <v>1445.917880466093</v>
       </c>
       <c r="AD2" t="n">
-        <v>1088137.263964855</v>
+        <v>1168266.66773628</v>
       </c>
       <c r="AE2" t="n">
-        <v>1488837.409784762</v>
+        <v>1598473.995084628</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.659195204628015e-06</v>
+        <v>2.507531705217944e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.22916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1346744.856991332</v>
+        <v>1445917.880466093</v>
       </c>
     </row>
     <row r="3">
@@ -4584,28 +4584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>618.1895861526314</v>
+        <v>674.3399342433945</v>
       </c>
       <c r="AB3" t="n">
-        <v>845.8342643737686</v>
+        <v>922.661647810078</v>
       </c>
       <c r="AC3" t="n">
-        <v>765.1090293177813</v>
+        <v>834.6041151068392</v>
       </c>
       <c r="AD3" t="n">
-        <v>618189.5861526313</v>
+        <v>674339.9342433945</v>
       </c>
       <c r="AE3" t="n">
-        <v>845834.2643737686</v>
+        <v>922661.647810078</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.229981553787842e-06</v>
+        <v>3.370157671970752e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.05</v>
       </c>
       <c r="AH3" t="n">
-        <v>765109.0293177813</v>
+        <v>834604.1151068392</v>
       </c>
     </row>
     <row r="4">
@@ -4690,28 +4690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>605.7463066825685</v>
+        <v>669.8326899219535</v>
       </c>
       <c r="AB4" t="n">
-        <v>828.808820444082</v>
+        <v>916.4946372838969</v>
       </c>
       <c r="AC4" t="n">
-        <v>749.7084698613833</v>
+        <v>829.0256754098232</v>
       </c>
       <c r="AD4" t="n">
-        <v>605746.3066825685</v>
+        <v>669832.6899219535</v>
       </c>
       <c r="AE4" t="n">
-        <v>828808.820444082</v>
+        <v>916494.6372838968</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.242225347899088e-06</v>
+        <v>3.388661644161893e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.96875</v>
       </c>
       <c r="AH4" t="n">
-        <v>749708.4698613833</v>
+        <v>829025.6754098232</v>
       </c>
     </row>
   </sheetData>
@@ -4987,28 +4987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>576.4129918040861</v>
+        <v>644.356955683785</v>
       </c>
       <c r="AB2" t="n">
-        <v>788.6736849328225</v>
+        <v>881.6376137891614</v>
       </c>
       <c r="AC2" t="n">
-        <v>713.4037753533021</v>
+        <v>797.4953573152857</v>
       </c>
       <c r="AD2" t="n">
-        <v>576412.9918040861</v>
+        <v>644356.955683785</v>
       </c>
       <c r="AE2" t="n">
-        <v>788673.6849328226</v>
+        <v>881637.6137891614</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.155782328798141e-06</v>
+        <v>3.407188080458117e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.90208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>713403.7753533021</v>
+        <v>797495.3573152857</v>
       </c>
     </row>
     <row r="3">
@@ -5093,28 +5093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>580.9236318672575</v>
+        <v>648.8675957469563</v>
       </c>
       <c r="AB3" t="n">
-        <v>794.8453416626487</v>
+        <v>887.8092705189877</v>
       </c>
       <c r="AC3" t="n">
-        <v>718.9864178268083</v>
+        <v>803.077999788792</v>
       </c>
       <c r="AD3" t="n">
-        <v>580923.6318672575</v>
+        <v>648867.5957469563</v>
       </c>
       <c r="AE3" t="n">
-        <v>794845.3416626487</v>
+        <v>887809.2705189877</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.156132123107536e-06</v>
+        <v>3.407740926163205e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="AH3" t="n">
-        <v>718986.4178268083</v>
+        <v>803077.999788792</v>
       </c>
     </row>
   </sheetData>
@@ -5390,28 +5390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2562.346032883546</v>
+        <v>2689.288180469559</v>
       </c>
       <c r="AB2" t="n">
-        <v>3505.914884920284</v>
+        <v>3679.602731539778</v>
       </c>
       <c r="AC2" t="n">
-        <v>3171.315288885805</v>
+        <v>3328.426611196353</v>
       </c>
       <c r="AD2" t="n">
-        <v>2562346.032883546</v>
+        <v>2689288.180469559</v>
       </c>
       <c r="AE2" t="n">
-        <v>3505914.884920284</v>
+        <v>3679602.731539778</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.057536900382104e-06</v>
+        <v>1.541768547081845e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.46458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3171315.288885805</v>
+        <v>3328426.611196353</v>
       </c>
     </row>
     <row r="3">
@@ -5496,28 +5496,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1044.657525572016</v>
+        <v>1120.925169443979</v>
       </c>
       <c r="AB3" t="n">
-        <v>1429.346513525001</v>
+        <v>1533.6992685616</v>
       </c>
       <c r="AC3" t="n">
-        <v>1292.931688374606</v>
+        <v>1387.325162930523</v>
       </c>
       <c r="AD3" t="n">
-        <v>1044657.525572016</v>
+        <v>1120925.169443979</v>
       </c>
       <c r="AE3" t="n">
-        <v>1429346.513525001</v>
+        <v>1533699.2685616</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.773778480912425e-06</v>
+        <v>2.585967326883139e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.56458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1292931.688374605</v>
+        <v>1387325.162930523</v>
       </c>
     </row>
     <row r="4">
@@ -5602,28 +5602,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>807.0322947500064</v>
+        <v>874.6551637689367</v>
       </c>
       <c r="AB4" t="n">
-        <v>1104.217189429017</v>
+        <v>1196.741782131147</v>
       </c>
       <c r="AC4" t="n">
-        <v>998.8322506484698</v>
+        <v>1082.52642608219</v>
       </c>
       <c r="AD4" t="n">
-        <v>807032.2947500064</v>
+        <v>874655.1637689368</v>
       </c>
       <c r="AE4" t="n">
-        <v>1104217.189429017</v>
+        <v>1196741.782131147</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.03909745436425e-06</v>
+        <v>2.972772220465828e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.28125</v>
       </c>
       <c r="AH4" t="n">
-        <v>998832.2506484698</v>
+        <v>1082526.42608219</v>
       </c>
     </row>
     <row r="5">
@@ -5708,28 +5708,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>694.1359311595199</v>
+        <v>753.3699583805816</v>
       </c>
       <c r="AB5" t="n">
-        <v>949.7474041284676</v>
+        <v>1030.794013393173</v>
       </c>
       <c r="AC5" t="n">
-        <v>859.1048448572994</v>
+        <v>932.4164794834121</v>
       </c>
       <c r="AD5" t="n">
-        <v>694135.9311595199</v>
+        <v>753369.9583805816</v>
       </c>
       <c r="AE5" t="n">
-        <v>949747.4041284675</v>
+        <v>1030794.013393173</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.175495934515357e-06</v>
+        <v>3.171625694506083e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.32291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>859104.8448572995</v>
+        <v>932416.4794834121</v>
       </c>
     </row>
     <row r="6">
@@ -5814,28 +5814,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>685.0107026906677</v>
+        <v>744.2447299117295</v>
       </c>
       <c r="AB6" t="n">
-        <v>937.2618639607163</v>
+        <v>1018.308473225422</v>
       </c>
       <c r="AC6" t="n">
-        <v>847.8109071195929</v>
+        <v>921.1225417457056</v>
       </c>
       <c r="AD6" t="n">
-        <v>685010.7026906677</v>
+        <v>744244.7299117295</v>
       </c>
       <c r="AE6" t="n">
-        <v>937261.8639607163</v>
+        <v>1018308.473225422</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.190451908216136e-06</v>
+        <v>3.193429803501725e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.225</v>
       </c>
       <c r="AH6" t="n">
-        <v>847810.9071195929</v>
+        <v>921122.5417457055</v>
       </c>
     </row>
   </sheetData>
@@ -6111,28 +6111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>584.2505817059196</v>
+        <v>658.4335198072143</v>
       </c>
       <c r="AB2" t="n">
-        <v>799.3974212065746</v>
+        <v>900.8977898370177</v>
       </c>
       <c r="AC2" t="n">
-        <v>723.1040532879455</v>
+        <v>814.9173691929615</v>
       </c>
       <c r="AD2" t="n">
-        <v>584250.5817059196</v>
+        <v>658433.5198072144</v>
       </c>
       <c r="AE2" t="n">
-        <v>799397.4212065745</v>
+        <v>900897.7898370178</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.083403631458726e-06</v>
+        <v>3.338102004272187e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.89791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>723104.0532879455</v>
+        <v>814917.3691929615</v>
       </c>
     </row>
   </sheetData>
@@ -6408,28 +6408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1582.801761961399</v>
+        <v>1681.600315825074</v>
       </c>
       <c r="AB2" t="n">
-        <v>2165.659199001091</v>
+        <v>2300.839739081947</v>
       </c>
       <c r="AC2" t="n">
-        <v>1958.971724570202</v>
+        <v>2081.25082363282</v>
       </c>
       <c r="AD2" t="n">
-        <v>1582801.761961399</v>
+        <v>1681600.315825074</v>
       </c>
       <c r="AE2" t="n">
-        <v>2165659.199001091</v>
+        <v>2300839.739081947</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.369086154133986e-06</v>
+        <v>2.032878262250001e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.6625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1958971.724570202</v>
+        <v>2081250.823632821</v>
       </c>
     </row>
     <row r="3">
@@ -6514,28 +6514,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>778.7876818970919</v>
+        <v>852.715915585705</v>
       </c>
       <c r="AB3" t="n">
-        <v>1065.571664059283</v>
+        <v>1166.72353487553</v>
       </c>
       <c r="AC3" t="n">
-        <v>963.8749999806881</v>
+        <v>1055.373078213774</v>
       </c>
       <c r="AD3" t="n">
-        <v>778787.6818970919</v>
+        <v>852715.9155857051</v>
       </c>
       <c r="AE3" t="n">
-        <v>1065571.664059283</v>
+        <v>1166723.53487553</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.026185312268026e-06</v>
+        <v>3.008567477044834e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.9875</v>
       </c>
       <c r="AH3" t="n">
-        <v>963874.9999806881</v>
+        <v>1055373.078213774</v>
       </c>
     </row>
     <row r="4">
@@ -6620,28 +6620,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>638.0088761106415</v>
+        <v>703.7892378318531</v>
       </c>
       <c r="AB4" t="n">
-        <v>872.9518912596812</v>
+        <v>962.9554841913874</v>
       </c>
       <c r="AC4" t="n">
-        <v>789.6385879535309</v>
+        <v>871.052364296671</v>
       </c>
       <c r="AD4" t="n">
-        <v>638008.8761106415</v>
+        <v>703789.2378318531</v>
       </c>
       <c r="AE4" t="n">
-        <v>872951.8912596812</v>
+        <v>962955.4841913874</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.224901053890199e-06</v>
+        <v>3.303629194155056e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.56041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>789638.5879535308</v>
+        <v>871052.364296671</v>
       </c>
     </row>
     <row r="5">
@@ -6726,28 +6726,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>639.430472694091</v>
+        <v>705.2108344153027</v>
       </c>
       <c r="AB5" t="n">
-        <v>874.8969824215718</v>
+        <v>964.9005753532781</v>
       </c>
       <c r="AC5" t="n">
-        <v>791.3980423448833</v>
+        <v>872.8118186880235</v>
       </c>
       <c r="AD5" t="n">
-        <v>639430.472694091</v>
+        <v>705210.8344153026</v>
       </c>
       <c r="AE5" t="n">
-        <v>874896.9824215719</v>
+        <v>964900.5753532781</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.227388887901119e-06</v>
+        <v>3.307323237561757e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.54375</v>
       </c>
       <c r="AH5" t="n">
-        <v>791398.0423448833</v>
+        <v>872811.8186880236</v>
       </c>
     </row>
   </sheetData>
@@ -7023,28 +7023,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2009.443727524873</v>
+        <v>2118.01905576026</v>
       </c>
       <c r="AB2" t="n">
-        <v>2749.409558400158</v>
+        <v>2897.967112497234</v>
       </c>
       <c r="AC2" t="n">
-        <v>2487.009768966998</v>
+        <v>2621.389198602886</v>
       </c>
       <c r="AD2" t="n">
-        <v>2009443.727524873</v>
+        <v>2118019.05576026</v>
       </c>
       <c r="AE2" t="n">
-        <v>2749409.558400158</v>
+        <v>2897967.112497234</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.207059978823593e-06</v>
+        <v>1.774912267734519e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.29583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2487009.768966998</v>
+        <v>2621389.198602885</v>
       </c>
     </row>
     <row r="3">
@@ -7129,28 +7129,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>908.2164450922304</v>
+        <v>983.3576593324791</v>
       </c>
       <c r="AB3" t="n">
-        <v>1242.661807856912</v>
+        <v>1345.473332176832</v>
       </c>
       <c r="AC3" t="n">
-        <v>1124.06390900185</v>
+        <v>1217.063245737557</v>
       </c>
       <c r="AD3" t="n">
-        <v>908216.4450922305</v>
+        <v>983357.6593324791</v>
       </c>
       <c r="AE3" t="n">
-        <v>1242661.807856912</v>
+        <v>1345473.332176832</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.894153315248483e-06</v>
+        <v>2.78524349674912e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.75625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1124063.90900185</v>
+        <v>1217063.245737557</v>
       </c>
     </row>
     <row r="4">
@@ -7235,28 +7235,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>704.5174221057875</v>
+        <v>771.3001302243895</v>
       </c>
       <c r="AB4" t="n">
-        <v>963.9518180402073</v>
+        <v>1055.326865533225</v>
       </c>
       <c r="AC4" t="n">
-        <v>871.953609441323</v>
+        <v>954.6079506472918</v>
       </c>
       <c r="AD4" t="n">
-        <v>704517.4221057876</v>
+        <v>771300.1302243895</v>
       </c>
       <c r="AE4" t="n">
-        <v>963951.8180402073</v>
+        <v>1055326.865533225</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.146443019266137e-06</v>
+        <v>3.156220994586853e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.7875</v>
       </c>
       <c r="AH4" t="n">
-        <v>871953.609441323</v>
+        <v>954607.9506472917</v>
       </c>
     </row>
     <row r="5">
@@ -7341,28 +7341,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>659.4362178922115</v>
+        <v>717.8605093977178</v>
       </c>
       <c r="AB5" t="n">
-        <v>902.2697255928282</v>
+        <v>982.2084187284926</v>
       </c>
       <c r="AC5" t="n">
-        <v>816.1583693257612</v>
+        <v>888.4678257832182</v>
       </c>
       <c r="AD5" t="n">
-        <v>659436.2178922115</v>
+        <v>717860.5093977178</v>
       </c>
       <c r="AE5" t="n">
-        <v>902269.7255928282</v>
+        <v>982208.4187284926</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.211495980386631e-06</v>
+        <v>3.251877632012404e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.35208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>816158.3693257612</v>
+        <v>888467.8257832183</v>
       </c>
     </row>
     <row r="6">
@@ -7447,28 +7447,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>662.3205894685769</v>
+        <v>720.744880974083</v>
       </c>
       <c r="AB6" t="n">
-        <v>906.2162500331045</v>
+        <v>986.1549431687688</v>
       </c>
       <c r="AC6" t="n">
-        <v>819.7282430124394</v>
+        <v>892.0376994698964</v>
       </c>
       <c r="AD6" t="n">
-        <v>662320.5894685769</v>
+        <v>720744.880974083</v>
       </c>
       <c r="AE6" t="n">
-        <v>906216.2500331046</v>
+        <v>986154.9431687688</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.211648329241714e-06</v>
+        <v>3.252101652240567e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.35208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>819728.2430124395</v>
+        <v>892037.6994698964</v>
       </c>
     </row>
   </sheetData>
@@ -7744,28 +7744,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3288.266973828547</v>
+        <v>3433.990300169551</v>
       </c>
       <c r="AB2" t="n">
-        <v>4499.151941692967</v>
+        <v>4698.537025652172</v>
       </c>
       <c r="AC2" t="n">
-        <v>4069.759194977029</v>
+        <v>4250.115246361884</v>
       </c>
       <c r="AD2" t="n">
-        <v>3288266.973828547</v>
+        <v>3433990.300169551</v>
       </c>
       <c r="AE2" t="n">
-        <v>4499151.941692967</v>
+        <v>4698537.025652172</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.224486198797382e-07</v>
+        <v>1.334573302053487e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.21041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4069759.194977029</v>
+        <v>4250115.246361883</v>
       </c>
     </row>
     <row r="3">
@@ -7850,28 +7850,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1187.200704425015</v>
+        <v>1264.353409953957</v>
       </c>
       <c r="AB3" t="n">
-        <v>1624.380379392901</v>
+        <v>1729.944114834744</v>
       </c>
       <c r="AC3" t="n">
-        <v>1469.351795815823</v>
+        <v>1564.84067650673</v>
       </c>
       <c r="AD3" t="n">
-        <v>1187200.704425015</v>
+        <v>1264353.409953957</v>
       </c>
       <c r="AE3" t="n">
-        <v>1624380.379392901</v>
+        <v>1729944.114834744</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.665789568945907e-06</v>
+        <v>2.410018550241017e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.38958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1469351.795815823</v>
+        <v>1564840.67650673</v>
       </c>
     </row>
     <row r="4">
@@ -7956,28 +7956,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>898.3977704361845</v>
+        <v>967.0537321028179</v>
       </c>
       <c r="AB4" t="n">
-        <v>1229.227464023156</v>
+        <v>1323.165579662705</v>
       </c>
       <c r="AC4" t="n">
-        <v>1111.911720088367</v>
+        <v>1196.88451381425</v>
       </c>
       <c r="AD4" t="n">
-        <v>898397.7704361845</v>
+        <v>967053.7321028179</v>
       </c>
       <c r="AE4" t="n">
-        <v>1229227.464023156</v>
+        <v>1323165.579662705</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.942832961238817e-06</v>
+        <v>2.810837313363729e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.76875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1111911.720088367</v>
+        <v>1196884.51381425</v>
       </c>
     </row>
     <row r="5">
@@ -8062,28 +8062,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>770.8063970406816</v>
+        <v>839.3770178527435</v>
       </c>
       <c r="AB5" t="n">
-        <v>1054.651318009305</v>
+        <v>1148.472666526656</v>
       </c>
       <c r="AC5" t="n">
-        <v>953.9968764309182</v>
+        <v>1038.864047124863</v>
       </c>
       <c r="AD5" t="n">
-        <v>770806.3970406817</v>
+        <v>839377.0178527435</v>
       </c>
       <c r="AE5" t="n">
-        <v>1054651.318009306</v>
+        <v>1148472.666526656</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.092383454849162e-06</v>
+        <v>3.027202855877422e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.64166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>953996.8764309182</v>
+        <v>1038864.047124863</v>
       </c>
     </row>
     <row r="6">
@@ -8168,28 +8168,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>709.2952487470329</v>
+        <v>769.2839638593168</v>
       </c>
       <c r="AB6" t="n">
-        <v>970.4890512335946</v>
+        <v>1052.56825776555</v>
       </c>
       <c r="AC6" t="n">
-        <v>877.8669382737979</v>
+        <v>952.1126205332336</v>
       </c>
       <c r="AD6" t="n">
-        <v>709295.248747033</v>
+        <v>769283.9638593168</v>
       </c>
       <c r="AE6" t="n">
-        <v>970489.0512335947</v>
+        <v>1052568.25776555</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.166202872540798e-06</v>
+        <v>3.134002759851733e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.14375</v>
       </c>
       <c r="AH6" t="n">
-        <v>877866.938273798</v>
+        <v>952112.6205332335</v>
       </c>
     </row>
     <row r="7">
@@ -8274,28 +8274,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>709.3562114276702</v>
+        <v>769.3449265399539</v>
       </c>
       <c r="AB7" t="n">
-        <v>970.5724630627262</v>
+        <v>1052.651669594682</v>
       </c>
       <c r="AC7" t="n">
-        <v>877.9423893950262</v>
+        <v>952.1880716544619</v>
       </c>
       <c r="AD7" t="n">
-        <v>709356.2114276702</v>
+        <v>769344.9265399539</v>
       </c>
       <c r="AE7" t="n">
-        <v>970572.4630627262</v>
+        <v>1052651.669594682</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.171202594057761e-06</v>
+        <v>3.141236219483459e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.11041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>877942.3893950263</v>
+        <v>952188.0716544619</v>
       </c>
     </row>
   </sheetData>
@@ -8571,28 +8571,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1238.659570835666</v>
+        <v>1327.542880200263</v>
       </c>
       <c r="AB2" t="n">
-        <v>1694.788670620917</v>
+        <v>1816.402735748419</v>
       </c>
       <c r="AC2" t="n">
-        <v>1533.040418547695</v>
+        <v>1643.04780798584</v>
       </c>
       <c r="AD2" t="n">
-        <v>1238659.570835666</v>
+        <v>1327542.880200263</v>
       </c>
       <c r="AE2" t="n">
-        <v>1694788.670620917</v>
+        <v>1816402.735748419</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.554750320355742e-06</v>
+        <v>2.334744634743912e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.31666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1533040.418547695</v>
+        <v>1643047.80798584</v>
       </c>
     </row>
     <row r="3">
@@ -8677,28 +8677,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>661.8559514587168</v>
+        <v>726.4518331237161</v>
       </c>
       <c r="AB3" t="n">
-        <v>905.580511809632</v>
+        <v>993.9634468728565</v>
       </c>
       <c r="AC3" t="n">
-        <v>819.1531787527508</v>
+        <v>899.1009705397696</v>
       </c>
       <c r="AD3" t="n">
-        <v>661855.9514587169</v>
+        <v>726451.8331237162</v>
       </c>
       <c r="AE3" t="n">
-        <v>905580.5118096319</v>
+        <v>993963.4468728565</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.172800560259769e-06</v>
+        <v>3.262861170708314e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.25208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>819153.1787527509</v>
+        <v>899100.9705397696</v>
       </c>
     </row>
     <row r="4">
@@ -8783,28 +8783,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>616.2477016071022</v>
+        <v>680.928834618122</v>
       </c>
       <c r="AB4" t="n">
-        <v>843.1772922686757</v>
+        <v>931.6768719845493</v>
       </c>
       <c r="AC4" t="n">
-        <v>762.7056349013147</v>
+        <v>842.7589389390457</v>
       </c>
       <c r="AD4" t="n">
-        <v>616247.7016071022</v>
+        <v>680928.834618122</v>
       </c>
       <c r="AE4" t="n">
-        <v>843177.2922686758</v>
+        <v>931676.8719845493</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.239775888702393e-06</v>
+        <v>3.363436990950531e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.79791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>762705.6349013147</v>
+        <v>842758.9389390458</v>
       </c>
     </row>
   </sheetData>
@@ -9080,28 +9080,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>822.9319640907285</v>
+        <v>893.5704406734319</v>
       </c>
       <c r="AB2" t="n">
-        <v>1125.971818464899</v>
+        <v>1222.622498474999</v>
       </c>
       <c r="AC2" t="n">
-        <v>1018.510648421981</v>
+        <v>1105.937123181999</v>
       </c>
       <c r="AD2" t="n">
-        <v>822931.9640907284</v>
+        <v>893570.4406734318</v>
       </c>
       <c r="AE2" t="n">
-        <v>1125971.818464899</v>
+        <v>1222622.498474999</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.894290222205546e-06</v>
+        <v>2.9053614697462e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.225</v>
       </c>
       <c r="AH2" t="n">
-        <v>1018510.648421981</v>
+        <v>1105937.123181999</v>
       </c>
     </row>
     <row r="3">
@@ -9186,28 +9186,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>592.7249548001338</v>
+        <v>655.4198985361851</v>
       </c>
       <c r="AB3" t="n">
-        <v>810.9924323370332</v>
+        <v>896.7744202624082</v>
       </c>
       <c r="AC3" t="n">
-        <v>733.5924528298137</v>
+        <v>811.1875282233672</v>
       </c>
       <c r="AD3" t="n">
-        <v>592724.9548001338</v>
+        <v>655419.898536185</v>
       </c>
       <c r="AE3" t="n">
-        <v>810992.4323370332</v>
+        <v>896774.4202624082</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.235994923297999e-06</v>
+        <v>3.429449944124352e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.43958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>733592.4528298137</v>
+        <v>811187.5282233672</v>
       </c>
     </row>
   </sheetData>
@@ -16048,28 +16048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>600.8351078448547</v>
+        <v>669.7641078011059</v>
       </c>
       <c r="AB2" t="n">
-        <v>822.0891015275208</v>
+        <v>916.4008002005232</v>
       </c>
       <c r="AC2" t="n">
-        <v>743.6300714870341</v>
+        <v>828.9407940059856</v>
       </c>
       <c r="AD2" t="n">
-        <v>600835.1078448547</v>
+        <v>669764.1078011058</v>
       </c>
       <c r="AE2" t="n">
-        <v>822089.1015275208</v>
+        <v>916400.8002005232</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.15840869981368e-06</v>
+        <v>3.372471018058263e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.54583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>743630.0714870341</v>
+        <v>828940.7940059856</v>
       </c>
     </row>
     <row r="3">
@@ -16154,28 +16154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>584.7232264548014</v>
+        <v>645.984055829512</v>
       </c>
       <c r="AB3" t="n">
-        <v>800.044114603609</v>
+        <v>883.8638839911376</v>
       </c>
       <c r="AC3" t="n">
-        <v>723.6890271748071</v>
+        <v>799.5091554137751</v>
       </c>
       <c r="AD3" t="n">
-        <v>584723.2264548014</v>
+        <v>645984.0558295121</v>
       </c>
       <c r="AE3" t="n">
-        <v>800044.1146036091</v>
+        <v>883863.8839911376</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.199722058296333e-06</v>
+        <v>3.437022325766311e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.23541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>723689.027174807</v>
+        <v>799509.1554137751</v>
       </c>
     </row>
   </sheetData>
@@ -16451,28 +16451,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>606.2461702693754</v>
+        <v>679.1637318610223</v>
       </c>
       <c r="AB2" t="n">
-        <v>829.4927558559762</v>
+        <v>929.2617805214477</v>
       </c>
       <c r="AC2" t="n">
-        <v>750.3271314374758</v>
+        <v>840.5743404155802</v>
       </c>
       <c r="AD2" t="n">
-        <v>606246.1702693754</v>
+        <v>679163.7318610223</v>
       </c>
       <c r="AE2" t="n">
-        <v>829492.7558559761</v>
+        <v>929261.7805214477</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.957480485717047e-06</v>
+        <v>3.190059228573502e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.58333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>750327.1314374758</v>
+        <v>840574.3404155802</v>
       </c>
     </row>
   </sheetData>
@@ -16748,28 +16748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1779.628743608799</v>
+        <v>1887.406946064102</v>
       </c>
       <c r="AB2" t="n">
-        <v>2434.96655868465</v>
+        <v>2582.433450122709</v>
       </c>
       <c r="AC2" t="n">
-        <v>2202.576767820815</v>
+        <v>2335.969626111108</v>
       </c>
       <c r="AD2" t="n">
-        <v>1779628.743608799</v>
+        <v>1887406.946064102</v>
       </c>
       <c r="AE2" t="n">
-        <v>2434966.55868465</v>
+        <v>2582433.450122709</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.286043244129154e-06</v>
+        <v>1.899975602978618e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.925</v>
       </c>
       <c r="AH2" t="n">
-        <v>2202576.767820816</v>
+        <v>2335969.626111108</v>
       </c>
     </row>
     <row r="3">
@@ -16854,28 +16854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>846.3823080091746</v>
+        <v>912.6746217769236</v>
       </c>
       <c r="AB3" t="n">
-        <v>1158.057613570275</v>
+        <v>1248.761681877784</v>
       </c>
       <c r="AC3" t="n">
-        <v>1047.534220275196</v>
+        <v>1129.581619607396</v>
       </c>
       <c r="AD3" t="n">
-        <v>846382.3080091747</v>
+        <v>912674.6217769235</v>
       </c>
       <c r="AE3" t="n">
-        <v>1158057.613570275</v>
+        <v>1248761.681877784</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.95922333423026e-06</v>
+        <v>2.89451894624632e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.36041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1047534.220275196</v>
+        <v>1129581.619607396</v>
       </c>
     </row>
     <row r="4">
@@ -16960,28 +16960,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>661.5233458298687</v>
+        <v>727.8155700890667</v>
       </c>
       <c r="AB4" t="n">
-        <v>905.1254261147172</v>
+        <v>995.8293719526779</v>
       </c>
       <c r="AC4" t="n">
-        <v>818.7415257978419</v>
+        <v>900.7888143488151</v>
       </c>
       <c r="AD4" t="n">
-        <v>661523.3458298687</v>
+        <v>727815.5700890666</v>
       </c>
       <c r="AE4" t="n">
-        <v>905125.4261147173</v>
+        <v>995829.3719526778</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.198644641703934e-06</v>
+        <v>3.248235390160502e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.58125</v>
       </c>
       <c r="AH4" t="n">
-        <v>818741.5257978418</v>
+        <v>900788.8143488151</v>
       </c>
     </row>
     <row r="5">
@@ -17066,28 +17066,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>650.2415700150536</v>
+        <v>708.2366881435814</v>
       </c>
       <c r="AB5" t="n">
-        <v>889.6892027280653</v>
+        <v>969.0406819155546</v>
       </c>
       <c r="AC5" t="n">
-        <v>804.7785139063366</v>
+        <v>876.5567992906722</v>
       </c>
       <c r="AD5" t="n">
-        <v>650241.5700150536</v>
+        <v>708236.6881435814</v>
       </c>
       <c r="AE5" t="n">
-        <v>889689.2027280653</v>
+        <v>969040.6819155546</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.219417055912768e-06</v>
+        <v>3.278924156181333e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.44375</v>
       </c>
       <c r="AH5" t="n">
-        <v>804778.5139063366</v>
+        <v>876556.7992906722</v>
       </c>
     </row>
   </sheetData>
@@ -17363,28 +17363,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2893.651634850789</v>
+        <v>3029.944768101504</v>
       </c>
       <c r="AB2" t="n">
-        <v>3959.221825703493</v>
+        <v>4145.704103445806</v>
       </c>
       <c r="AC2" t="n">
-        <v>3581.359251460935</v>
+        <v>3750.043922345035</v>
       </c>
       <c r="AD2" t="n">
-        <v>2893651.634850789</v>
+        <v>3029944.768101504</v>
       </c>
       <c r="AE2" t="n">
-        <v>3959221.825703493</v>
+        <v>4145704.103445807</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.897274342688428e-07</v>
+        <v>1.437251513963018e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.2125</v>
       </c>
       <c r="AH2" t="n">
-        <v>3581359.251460935</v>
+        <v>3750043.922345035</v>
       </c>
     </row>
     <row r="3">
@@ -17469,28 +17469,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1109.47706282058</v>
+        <v>1194.596209518503</v>
       </c>
       <c r="AB3" t="n">
-        <v>1518.035464024647</v>
+        <v>1634.499235728469</v>
       </c>
       <c r="AC3" t="n">
-        <v>1373.156289914289</v>
+        <v>1478.504922704628</v>
       </c>
       <c r="AD3" t="n">
-        <v>1109477.06282058</v>
+        <v>1194596.209518503</v>
       </c>
       <c r="AE3" t="n">
-        <v>1518035.464024647</v>
+        <v>1634499.235728469</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.719679218374538e-06</v>
+        <v>2.497264877744282e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.9625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1373156.289914289</v>
+        <v>1478504.922704628</v>
       </c>
     </row>
     <row r="4">
@@ -17575,28 +17575,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>851.8320085647359</v>
+        <v>920.063871290389</v>
       </c>
       <c r="AB4" t="n">
-        <v>1165.514134294214</v>
+        <v>1258.871979052789</v>
       </c>
       <c r="AC4" t="n">
-        <v>1054.279101126535</v>
+        <v>1138.727004209909</v>
       </c>
       <c r="AD4" t="n">
-        <v>851832.0085647359</v>
+        <v>920063.871290389</v>
       </c>
       <c r="AE4" t="n">
-        <v>1165514.134294214</v>
+        <v>1258871.979052789</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.990575401506998e-06</v>
+        <v>2.890651921341351e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.51875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1054279.101126535</v>
+        <v>1138727.004209909</v>
       </c>
     </row>
     <row r="5">
@@ -17681,28 +17681,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>729.5428780259696</v>
+        <v>789.1605065648955</v>
       </c>
       <c r="AB5" t="n">
-        <v>998.1927508753962</v>
+        <v>1079.7642203865</v>
       </c>
       <c r="AC5" t="n">
-        <v>902.9266357041726</v>
+        <v>976.7130386514126</v>
       </c>
       <c r="AD5" t="n">
-        <v>729542.8780259696</v>
+        <v>789160.5065648955</v>
       </c>
       <c r="AE5" t="n">
-        <v>998192.7508753962</v>
+        <v>1079764.2203865</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.137366436701928e-06</v>
+        <v>3.103817314423506e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.45208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>902926.6357041725</v>
+        <v>976713.0386514126</v>
       </c>
     </row>
     <row r="6">
@@ -17787,28 +17787,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>696.4430603807373</v>
+        <v>756.0606889196631</v>
       </c>
       <c r="AB6" t="n">
-        <v>952.9041201122948</v>
+        <v>1034.475589623398</v>
       </c>
       <c r="AC6" t="n">
-        <v>861.960288298109</v>
+        <v>935.7466912453491</v>
       </c>
       <c r="AD6" t="n">
-        <v>696443.0603807373</v>
+        <v>756060.6889196631</v>
       </c>
       <c r="AE6" t="n">
-        <v>952904.1201122948</v>
+        <v>1034475.589623398</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.179772735758241e-06</v>
+        <v>3.165398427980573e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.17083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>861960.2882981091</v>
+        <v>935746.6912453491</v>
       </c>
     </row>
     <row r="7">
@@ -17893,28 +17893,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>699.0463023959231</v>
+        <v>758.6639309348492</v>
       </c>
       <c r="AB7" t="n">
-        <v>956.4659906844047</v>
+        <v>1038.037460195508</v>
       </c>
       <c r="AC7" t="n">
-        <v>865.1822189419333</v>
+        <v>938.9686218891733</v>
       </c>
       <c r="AD7" t="n">
-        <v>699046.3023959232</v>
+        <v>758663.9309348492</v>
       </c>
       <c r="AE7" t="n">
-        <v>956465.9906844047</v>
+        <v>1038037.460195508</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.179624461985317e-06</v>
+        <v>3.165183109401702e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.17291666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>865182.2189419334</v>
+        <v>938968.6218891733</v>
       </c>
     </row>
   </sheetData>
@@ -18190,28 +18190,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>666.1980061706741</v>
+        <v>751.4153816132152</v>
       </c>
       <c r="AB2" t="n">
-        <v>911.5215026244661</v>
+        <v>1028.119675230221</v>
       </c>
       <c r="AC2" t="n">
-        <v>824.5271697424504</v>
+        <v>929.9973764012751</v>
       </c>
       <c r="AD2" t="n">
-        <v>666198.0061706741</v>
+        <v>751415.3816132152</v>
       </c>
       <c r="AE2" t="n">
-        <v>911521.5026244661</v>
+        <v>1028119.675230221</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.70765865354003e-06</v>
+        <v>2.846565234784933e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.24583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>824527.1697424504</v>
+        <v>929997.3764012752</v>
       </c>
     </row>
   </sheetData>
@@ -18487,28 +18487,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>952.6528801894225</v>
+        <v>1031.907697746989</v>
       </c>
       <c r="AB2" t="n">
-        <v>1303.461698754049</v>
+        <v>1411.901636612094</v>
       </c>
       <c r="AC2" t="n">
-        <v>1179.061143644946</v>
+        <v>1277.151726030228</v>
       </c>
       <c r="AD2" t="n">
-        <v>952652.8801894225</v>
+        <v>1031907.697746989</v>
       </c>
       <c r="AE2" t="n">
-        <v>1303461.698754049</v>
+        <v>1411901.636612094</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.769026133909943e-06</v>
+        <v>2.692292587196533e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.23125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1179061.143644946</v>
+        <v>1277151.726030227</v>
       </c>
     </row>
     <row r="3">
@@ -18593,28 +18593,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>600.1224329778058</v>
+        <v>655.720309317068</v>
       </c>
       <c r="AB3" t="n">
-        <v>821.1139883334282</v>
+        <v>897.1854555460004</v>
       </c>
       <c r="AC3" t="n">
-        <v>742.7480217276058</v>
+        <v>811.5593348763849</v>
       </c>
       <c r="AD3" t="n">
-        <v>600122.4329778058</v>
+        <v>655720.309317068</v>
       </c>
       <c r="AE3" t="n">
-        <v>821113.9883334282</v>
+        <v>897185.4555460004</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.243738491638754e-06</v>
+        <v>3.414760467837198e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.1625</v>
       </c>
       <c r="AH3" t="n">
-        <v>742748.0217276057</v>
+        <v>811559.3348763849</v>
       </c>
     </row>
     <row r="4">
@@ -18699,28 +18699,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>604.1313635651778</v>
+        <v>659.72923990444</v>
       </c>
       <c r="AB4" t="n">
-        <v>826.5991840246058</v>
+        <v>902.6706512371783</v>
       </c>
       <c r="AC4" t="n">
-        <v>747.7097180405381</v>
+        <v>816.5210311893171</v>
       </c>
       <c r="AD4" t="n">
-        <v>604131.3635651778</v>
+        <v>659729.23990444</v>
       </c>
       <c r="AE4" t="n">
-        <v>826599.1840246059</v>
+        <v>902670.6512371782</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.242758693170789e-06</v>
+        <v>3.41326930606085e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.16875</v>
       </c>
       <c r="AH4" t="n">
-        <v>747709.718040538</v>
+        <v>816521.0311893171</v>
       </c>
     </row>
   </sheetData>
@@ -18996,28 +18996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1402.279034742034</v>
+        <v>1500.017755523244</v>
       </c>
       <c r="AB2" t="n">
-        <v>1918.660039518908</v>
+        <v>2052.390469219801</v>
       </c>
       <c r="AC2" t="n">
-        <v>1735.545818203501</v>
+        <v>1856.513203385578</v>
       </c>
       <c r="AD2" t="n">
-        <v>1402279.034742034</v>
+        <v>1500017.755523244</v>
       </c>
       <c r="AE2" t="n">
-        <v>1918660.039518908</v>
+        <v>2052390.469219801</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.458868985373422e-06</v>
+        <v>2.177961109440061e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.45208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1735545.818203501</v>
+        <v>1856513.203385578</v>
       </c>
     </row>
     <row r="3">
@@ -19102,28 +19102,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>720.6989972766254</v>
+        <v>786.0287665008749</v>
       </c>
       <c r="AB3" t="n">
-        <v>986.0921630696614</v>
+        <v>1075.479235468286</v>
       </c>
       <c r="AC3" t="n">
-        <v>891.9809110153353</v>
+        <v>972.8370066797792</v>
       </c>
       <c r="AD3" t="n">
-        <v>720698.9972766254</v>
+        <v>786028.7665008749</v>
       </c>
       <c r="AE3" t="n">
-        <v>986092.1630696614</v>
+        <v>1075479.235468286</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.096878506080971e-06</v>
+        <v>3.130452345791799e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.62083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>891980.9110153354</v>
+        <v>972837.0066797792</v>
       </c>
     </row>
     <row r="4">
@@ -19208,28 +19208,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>625.4659686280412</v>
+        <v>690.7103969977189</v>
       </c>
       <c r="AB4" t="n">
-        <v>855.7901318879632</v>
+        <v>945.0604371643902</v>
       </c>
       <c r="AC4" t="n">
-        <v>774.114722809569</v>
+        <v>854.8651954420741</v>
       </c>
       <c r="AD4" t="n">
-        <v>625465.9686280412</v>
+        <v>690710.396997719</v>
       </c>
       <c r="AE4" t="n">
-        <v>855790.1318879632</v>
+        <v>945060.4371643902</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.23554888490405e-06</v>
+        <v>3.337474837280766e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.65208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>774114.722809569</v>
+        <v>854865.1954420741</v>
       </c>
     </row>
   </sheetData>
